--- a/Career Docs/Profile Planning - SCM.xlsx
+++ b/Career Docs/Profile Planning - SCM.xlsx
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1110,7 @@
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="8" t="s">
         <v>116</v>
       </c>
     </row>
